--- a/me/论文/result/实验结果.xlsx
+++ b/me/论文/result/实验结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="14295" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,111 +383,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -509,9 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,6 +436,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +517,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -550,37 +550,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,145 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,15 +796,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -821,6 +812,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -831,15 +864,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,30 +885,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -901,10 +901,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -913,133 +913,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,8 +1412,8 @@
   <sheetPr/>
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/me/论文/result/实验结果.xlsx
+++ b/me/论文/result/实验结果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
   <si>
     <t>KNN算法</t>
   </si>
@@ -312,6 +312,9 @@
     <t>10.2/10.81</t>
   </si>
   <si>
+    <t>9.05/11.26</t>
+  </si>
+  <si>
     <t>12.3/6.77</t>
   </si>
   <si>
@@ -324,6 +327,9 @@
     <t>8.9/7.09</t>
   </si>
   <si>
+    <t>9.43/8.96</t>
+  </si>
+  <si>
     <t>7.6/7.24</t>
   </si>
   <si>
@@ -336,6 +342,9 @@
     <t>8.00/7.74</t>
   </si>
   <si>
+    <t>8.58/9.00</t>
+  </si>
+  <si>
     <t>7.77/8.13</t>
   </si>
   <si>
@@ -348,6 +357,9 @@
     <t>7.53/10.25</t>
   </si>
   <si>
+    <t>7.96/9.49</t>
+  </si>
+  <si>
     <t>adaboost算法</t>
   </si>
   <si>
@@ -376,6 +388,204 @@
   </si>
   <si>
     <t>depth=10</t>
+  </si>
+  <si>
+    <t>随机森林算法</t>
+  </si>
+  <si>
+    <t>10.57/20.82</t>
+  </si>
+  <si>
+    <t>12.57/27.86</t>
+  </si>
+  <si>
+    <t>11.80/23.53</t>
+  </si>
+  <si>
+    <t>10.37/21.11</t>
+  </si>
+  <si>
+    <t>11.33/23.33</t>
+  </si>
+  <si>
+    <t>8.57/16.03</t>
+  </si>
+  <si>
+    <t>8.50/16.64</t>
+  </si>
+  <si>
+    <t>7.67/12.10</t>
+  </si>
+  <si>
+    <t>8.60/16.41</t>
+  </si>
+  <si>
+    <t>8.34/15.30</t>
+  </si>
+  <si>
+    <t>8.23/13.91</t>
+  </si>
+  <si>
+    <t>8.47/14.16</t>
+  </si>
+  <si>
+    <t>7.53/12.77</t>
+  </si>
+  <si>
+    <t>8.40/12.87</t>
+  </si>
+  <si>
+    <t>8.16/13.43</t>
+  </si>
+  <si>
+    <t>8.07/12.87</t>
+  </si>
+  <si>
+    <t>7.87/13.47</t>
+  </si>
+  <si>
+    <t>7.90/14.11</t>
+  </si>
+  <si>
+    <t>7.53/14.18</t>
+  </si>
+  <si>
+    <t>7.84/13.66</t>
+  </si>
+  <si>
+    <t>9.50/17.53</t>
+  </si>
+  <si>
+    <t>7.73/13.24</t>
+  </si>
+  <si>
+    <t>8.50/12.55</t>
+  </si>
+  <si>
+    <t>8.70/15.10</t>
+  </si>
+  <si>
+    <t>8.61/14.61</t>
+  </si>
+  <si>
+    <t>6.93/11.09</t>
+  </si>
+  <si>
+    <t>7.37/11.07</t>
+  </si>
+  <si>
+    <t>7.70/10.99</t>
+  </si>
+  <si>
+    <t>7.47/12.56</t>
+  </si>
+  <si>
+    <t>7.38/11.43</t>
+  </si>
+  <si>
+    <t>6.87/10.33</t>
+  </si>
+  <si>
+    <t>7.60/11.84</t>
+  </si>
+  <si>
+    <t>7.97/9.73</t>
+  </si>
+  <si>
+    <t>7.43/11.02</t>
+  </si>
+  <si>
+    <t>7.47/10.73</t>
+  </si>
+  <si>
+    <t>6.93/10.18</t>
+  </si>
+  <si>
+    <t>7.57/11.84</t>
+  </si>
+  <si>
+    <t>7.47/9.13</t>
+  </si>
+  <si>
+    <t>7.70/10.25</t>
+  </si>
+  <si>
+    <t>7.42/10.35</t>
+  </si>
+  <si>
+    <t>depth=6</t>
+  </si>
+  <si>
+    <t>7.93/11.25</t>
+  </si>
+  <si>
+    <t>8.87/15.79</t>
+  </si>
+  <si>
+    <t>10.47/20.94</t>
+  </si>
+  <si>
+    <t>7.47/11.63</t>
+  </si>
+  <si>
+    <t>7.2/10.03</t>
+  </si>
+  <si>
+    <t>8.33/10.68</t>
+  </si>
+  <si>
+    <t>6.67/11.88</t>
+  </si>
+  <si>
+    <t>7.33/10.71</t>
+  </si>
+  <si>
+    <t>7.03/9.42</t>
+  </si>
+  <si>
+    <t>7.73/11.22</t>
+  </si>
+  <si>
+    <t>6.87/9.43</t>
+  </si>
+  <si>
+    <t>7.03/10.25</t>
+  </si>
+  <si>
+    <t>6.73/10.87</t>
+  </si>
+  <si>
+    <t>7.57/14.40</t>
+  </si>
+  <si>
+    <t>7.77/10.54</t>
+  </si>
+  <si>
+    <t>6.80/10.63</t>
+  </si>
+  <si>
+    <t>5.77/9.12</t>
+  </si>
+  <si>
+    <t>6.53/12.00</t>
+  </si>
+  <si>
+    <t>7.03/9.21</t>
+  </si>
+  <si>
+    <t>6.53/10.02</t>
+  </si>
+  <si>
+    <t>5.56/8.74</t>
+  </si>
+  <si>
+    <t>6.93/12.00</t>
+  </si>
+  <si>
+    <t>6.63/8.98</t>
+  </si>
+  <si>
+    <t>6.57/10.09</t>
   </si>
 </sst>
 </file>
@@ -383,10 +593,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -397,8 +607,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -413,106 +713,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,13 +729,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -540,6 +736,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -547,6 +757,84 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -556,42 +844,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -604,7 +856,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,37 +892,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,79 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,17 +1006,61 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,20 +1080,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,47 +1103,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -901,10 +1111,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -913,133 +1123,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1410,10 +1620,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2006,75 +2216,83 @@
       <c r="E40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="5">
         <v>1000</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5">
         <v>2000</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5">
         <v>3000</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2115,7 +2333,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2125,7 +2343,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2135,7 +2353,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2145,7 +2363,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2155,10 +2373,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2203,7 +2421,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2213,7 +2431,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2223,7 +2441,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2233,7 +2451,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2243,10 +2461,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2291,7 +2509,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2301,7 +2519,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2311,7 +2529,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2321,7 +2539,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2331,10 +2549,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2379,7 +2597,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2389,7 +2607,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2399,7 +2617,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2409,7 +2627,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2417,8 +2635,468 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3"/>
+      <c r="B83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="4"/>
+      <c r="B84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3"/>
+      <c r="B92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="4"/>
+      <c r="B93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="3"/>
+      <c r="B101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="4"/>
+      <c r="B102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="3"/>
+      <c r="B109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="4"/>
+      <c r="B110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F113" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="26">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B19:F19"/>
@@ -2428,6 +3106,10 @@
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B108:F108"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A19:A21"/>
@@ -2437,6 +3119,10 @@
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A108:A110"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/me/论文/result/实验结果.xlsx
+++ b/me/论文/result/实验结果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282">
   <si>
     <t>KNN算法</t>
   </si>
@@ -451,6 +451,282 @@
   </si>
   <si>
     <t>7.84/13.66</t>
+  </si>
+  <si>
+    <t>随机森林算法(比例0.8)</t>
+  </si>
+  <si>
+    <t>11.20/22.42</t>
+  </si>
+  <si>
+    <t>11.80/22.54</t>
+  </si>
+  <si>
+    <t>11.13/21.97</t>
+  </si>
+  <si>
+    <t>11.43/25.19</t>
+  </si>
+  <si>
+    <t>11.39/23.03</t>
+  </si>
+  <si>
+    <t>9.4/19.07</t>
+  </si>
+  <si>
+    <t>8.97/17.88</t>
+  </si>
+  <si>
+    <t>8.33/12.77</t>
+  </si>
+  <si>
+    <t>7.7/15.02</t>
+  </si>
+  <si>
+    <t>8.6/16.18</t>
+  </si>
+  <si>
+    <t>7.77/14.57</t>
+  </si>
+  <si>
+    <t>9.63/13.39</t>
+  </si>
+  <si>
+    <t>9.00/11.95</t>
+  </si>
+  <si>
+    <t>8.87/14.10</t>
+  </si>
+  <si>
+    <t>8.81/13.50</t>
+  </si>
+  <si>
+    <t>8.2/15.27</t>
+  </si>
+  <si>
+    <t>8.7/13.93</t>
+  </si>
+  <si>
+    <t>8.83/14.77</t>
+  </si>
+  <si>
+    <t>8.17/13.17</t>
+  </si>
+  <si>
+    <t>8.48/14.29</t>
+  </si>
+  <si>
+    <t>7.63/14.06</t>
+  </si>
+  <si>
+    <t>8.37/10.76</t>
+  </si>
+  <si>
+    <t>7.73/9.13</t>
+  </si>
+  <si>
+    <t>7.53/11.48</t>
+  </si>
+  <si>
+    <t>7.82/11.36</t>
+  </si>
+  <si>
+    <t>6.53/11.32</t>
+  </si>
+  <si>
+    <t>7.97/11.30</t>
+  </si>
+  <si>
+    <t>7.97/8.83</t>
+  </si>
+  <si>
+    <t>7.43/10.94</t>
+  </si>
+  <si>
+    <t>7.48/10.6</t>
+  </si>
+  <si>
+    <t>随机森林算法改进</t>
+  </si>
+  <si>
+    <t>9.13/15.88</t>
+  </si>
+  <si>
+    <t>11.57/25.37</t>
+  </si>
+  <si>
+    <t>9.53/15.37</t>
+  </si>
+  <si>
+    <t>10.3/20.26</t>
+  </si>
+  <si>
+    <t>10.13/19.22</t>
+  </si>
+  <si>
+    <t>8.27/14.06</t>
+  </si>
+  <si>
+    <t>8.87/15.56</t>
+  </si>
+  <si>
+    <t>7.83/10.69</t>
+  </si>
+  <si>
+    <t>8.67/14.71</t>
+  </si>
+  <si>
+    <t>8.41/13.76</t>
+  </si>
+  <si>
+    <t>8.73/12.84</t>
+  </si>
+  <si>
+    <t>8.43/12.85</t>
+  </si>
+  <si>
+    <t>7.23/11.14</t>
+  </si>
+  <si>
+    <t>8.20/12.09</t>
+  </si>
+  <si>
+    <t>8.15/12.23</t>
+  </si>
+  <si>
+    <t>7.77/11.70</t>
+  </si>
+  <si>
+    <t>8.17/11.92</t>
+  </si>
+  <si>
+    <t>8.07/9.58</t>
+  </si>
+  <si>
+    <t>7.90/12.17</t>
+  </si>
+  <si>
+    <t>7.98/11.34</t>
+  </si>
+  <si>
+    <t>7.50/10.41</t>
+  </si>
+  <si>
+    <t>7.63/10.91</t>
+  </si>
+  <si>
+    <t>7.97/10.69</t>
+  </si>
+  <si>
+    <t>7.26/10.79</t>
+  </si>
+  <si>
+    <t>7.59/10.7</t>
+  </si>
+  <si>
+    <t>7.13/10.26</t>
+  </si>
+  <si>
+    <t>7.70/11.45</t>
+  </si>
+  <si>
+    <t>7.83/9.21</t>
+  </si>
+  <si>
+    <t>7.60/10.55</t>
+  </si>
+  <si>
+    <t>7.57/10.37</t>
+  </si>
+  <si>
+    <t>6.6/9.12</t>
+  </si>
+  <si>
+    <t>7.33/12.77</t>
+  </si>
+  <si>
+    <t>7.77/9.35</t>
+  </si>
+  <si>
+    <t>7.27/10.01</t>
+  </si>
+  <si>
+    <t>7.24/10.31</t>
+  </si>
+  <si>
+    <t>6.17/8.81</t>
+  </si>
+  <si>
+    <t>6.57/11.61</t>
+  </si>
+  <si>
+    <t>7.23/8.98</t>
+  </si>
+  <si>
+    <t>6.67/9.78</t>
+  </si>
+  <si>
+    <t>6.66/9.79</t>
+  </si>
+  <si>
+    <t>5.9/8.66</t>
+  </si>
+  <si>
+    <t>6.8/11.46</t>
+  </si>
+  <si>
+    <t>6.67/8.69</t>
+  </si>
+  <si>
+    <t>6.6/10.02</t>
+  </si>
+  <si>
+    <t>6.49/9.71</t>
+  </si>
+  <si>
+    <t>6.37/9.35</t>
+  </si>
+  <si>
+    <t>6.1/8.67</t>
+  </si>
+  <si>
+    <t>6.9/8.31</t>
+  </si>
+  <si>
+    <t>6.03/8.01</t>
+  </si>
+  <si>
+    <t>6.35/8.59</t>
+  </si>
+  <si>
+    <t>5.8/8.89</t>
+  </si>
+  <si>
+    <t>6.37/9.9</t>
+  </si>
+  <si>
+    <t>5.93/7.57</t>
+  </si>
+  <si>
+    <t>6.3/8.24</t>
+  </si>
+  <si>
+    <t>6.1/8.65</t>
+  </si>
+  <si>
+    <t>5.63/8.36</t>
+  </si>
+  <si>
+    <t>6.53/10.45</t>
+  </si>
+  <si>
+    <t>5.83/7.57</t>
+  </si>
+  <si>
+    <t>6.17/8.63</t>
+  </si>
+  <si>
+    <t>6.04/8.75</t>
   </si>
   <si>
     <t>9.50/17.53</t>
@@ -598,10 +874,17 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1111,10 +1394,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,137 +1406,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1271,6 +1554,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1325,6 +1617,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1620,10 +1917,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2764,11 +3061,11 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>124</v>
+      <c r="A91" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2816,19 +3113,19 @@
         <v>117</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2836,19 +3133,19 @@
         <v>118</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2856,92 +3153,108 @@
         <v>119</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="3"/>
+      <c r="B100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="4"/>
+      <c r="B101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="F102" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="3"/>
-      <c r="B101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="4"/>
-      <c r="B102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>166</v>
@@ -2955,148 +3268,812 @@
       <c r="E103" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F103" s="5"/>
+      <c r="F103" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F104" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="B107" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="3"/>
+      <c r="B108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="4"/>
+      <c r="B109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F105" s="5"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="3"/>
-      <c r="B109" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="4"/>
-      <c r="B110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>7</v>
+      <c r="C110" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F111" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="3"/>
+      <c r="B116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="4"/>
+      <c r="B117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="5" t="s">
+      <c r="B119" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F113" s="5"/>
+      <c r="B120" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="3"/>
+      <c r="B124" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="4"/>
+      <c r="B125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="3"/>
+      <c r="B132" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="4"/>
+      <c r="B133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="3"/>
+      <c r="B140" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="4"/>
+      <c r="B141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="3"/>
+      <c r="B149" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="4"/>
+      <c r="B150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="3"/>
+      <c r="B157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="4"/>
+      <c r="B158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F159" s="5"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F161" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="38">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B19:F19"/>
@@ -3108,8 +4085,14 @@
     <mergeCell ref="B73:F73"/>
     <mergeCell ref="B82:F82"/>
     <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B156:F156"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A19:A21"/>
@@ -3121,8 +4104,14 @@
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A82:A84"/>
     <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="A156:A158"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
